--- a/biology/Zoologie/Conus_lischkeanus_kermadecensis/Conus_lischkeanus_kermadecensis.xlsx
+++ b/biology/Zoologie/Conus_lischkeanus_kermadecensis/Conus_lischkeanus_kermadecensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus kermadecensis
 Conus lischkeanus kermadecensis est une sous-espèce de mollusques gastéropodes marins de la famille des Conidae. Elle a été initialement décrite sous le taxon Conus kermadecensis.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 25 mm et 60 mm.
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est endémique à la Nouvelle-Zélande, et se trouve au large des îles Kermadec.
 </t>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Première description
-L'espèce Conus lischkeanus kermadecensis a été décrite pour la première fois en 1912 par le malacologiste australien Tom Iredale (1880-1972) sous le  protonyme Conus kermadecensis[1] dans « Proceedings of the Malacological Society of London »[2],[3]. Le 5 mars 2023 elle a été reclassée en sous-espèce de l'espèce Conus lischkeanus.
-Synonymes
-Calamiconus kermadecensis (Iredale, 1912) · non accepté
+          <t>Première description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus lischkeanus kermadecensis a été décrite pour la première fois en 1912 par le malacologiste australien Tom Iredale (1880-1972) sous le  protonyme Conus kermadecensis dans « Proceedings of the Malacological Society of London »,. Le 5 mars 2023 elle a été reclassée en sous-espèce de l'espèce Conus lischkeanus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_lischkeanus_kermadecensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_lischkeanus_kermadecensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Calamiconus kermadecensis (Iredale, 1912) · non accepté
 Conus (Lividoconus) kermadecensis Iredale, 1912 · appellation alternative
 Conus (Lividoconus) lischkeanus kermadecensis Iredale, 1912 · non accepté
 Conus kermadecensis Iredale, 1912 · non accepté</t>
